--- a/Datos/Anuario2024/090503_FormacionPersonasAdultas.xlsx
+++ b/Datos/Anuario2024/090503_FormacionPersonasAdultas.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4770" windowWidth="15480" windowHeight="4830" tabRatio="725" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4770" windowWidth="15480" windowHeight="4830" tabRatio="725"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="33" r:id="rId1"/>
+    <sheet name="1" sheetId="197" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_1">#REF!</definedName>
@@ -50,105 +56,233 @@
     <definedName name="_R5_5">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Grupos</t>
+  </si>
+  <si>
+    <t>Prueba para mayores 18 años para la obtención del título de GES</t>
+  </si>
+  <si>
+    <t>Prueba para mayores 20 años para la obtención del título de Bachiller</t>
+  </si>
+  <si>
+    <t>Prueba de acceso a CFGM</t>
+  </si>
+  <si>
+    <t>Prueba de acceso a CFGS</t>
+  </si>
+  <si>
+    <t>Valenciano A1</t>
+  </si>
+  <si>
+    <t>Valenciano A2</t>
+  </si>
+  <si>
+    <t>Valenciano B1</t>
+  </si>
+  <si>
+    <t>Valenciano B2</t>
+  </si>
+  <si>
+    <t>Valenciano C1</t>
+  </si>
+  <si>
+    <t>Valenciano C2</t>
+  </si>
+  <si>
+    <t>Prueba de acceso a la universidad para mayores de 45 años</t>
+  </si>
+  <si>
+    <t>Castellano y valenciano como lengua extranjera</t>
+  </si>
+  <si>
+    <t>Cursos de competencia comunicativa en lenguas extranjeras</t>
+  </si>
+  <si>
+    <t>Curso de nacionalidad española</t>
+  </si>
+  <si>
+    <t>Curso de competencias digitales</t>
+  </si>
+  <si>
+    <t>Cursos para el desarrollo de la igualdad de oportunidades, la superación de todo tipo de discriminaciones y la promoción de la participación sociocultural y laboral</t>
+  </si>
+  <si>
+    <t>Pruebas de evaluación de las competencias clave de nivel 2 de calificación profesional</t>
+  </si>
+  <si>
+    <t>Cursos que orientan y preparan para vivir el tiempo de ocio de una forma creativa</t>
+  </si>
+  <si>
+    <t>Prep. P.A. Ens. Artísticas superiores</t>
+  </si>
+  <si>
+    <t>Alfabetización (nivel 1)</t>
+  </si>
+  <si>
+    <t>Neolectura (nivel 2)</t>
+  </si>
+  <si>
+    <t>Educación de base (nivel 3)</t>
+  </si>
+  <si>
+    <t>Graduado educación secundaría 1 (GES1)</t>
+  </si>
+  <si>
+    <t>Graduado educación secundaría 2 (GES2)</t>
+  </si>
+  <si>
+    <t>B  Programas para la obtención de titulaciones que posibilitan el acceso al mundo del trabajo y a otros niveles educativos</t>
+  </si>
+  <si>
+    <t>C Programas para promover el conocimiento de la realidad valenciana en todos sus aspectos</t>
+  </si>
+  <si>
+    <t>D Programas para la preparación del ingreso en la universidad</t>
+  </si>
+  <si>
+    <t>E Programas que promuevan el desarrollo de la igualdad de oportunidades, la superación de todo tipo de discriminaciones</t>
+  </si>
+  <si>
+    <t>G Programas de iniciación al trabajo, de actualización y de reconversión de las profesiones</t>
+  </si>
+  <si>
+    <t>J Programas que orientan y preparan para vivir el tiempo de recreo de una forma creativa</t>
+  </si>
+  <si>
+    <t>A Programas de alfabetización y para adquirir y actualizar la formación básica de las personas adultas</t>
+  </si>
+  <si>
+    <t>FORMACIÓN DE PERSONAS ADULTAS</t>
+  </si>
+  <si>
+    <t>Fuente: Conselleria de Participación, Transparencia, Cooperación y Calidad Democrática. Portal de datos abiertos de la Generalitat Valenciana.</t>
+  </si>
+  <si>
+    <t>Prueba de acceso a la universidad para mayores de 25 años</t>
+  </si>
+  <si>
+    <t>Total alumnos</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>1. Formación de personas adultas. Curso 2023/24</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-C0A];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-C0A]"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial1"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="16"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial1"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="61"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="61"/>
-      <sz val="10"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="12"/>
-      <sz val="10"/>
-      <u val="single"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -177,86 +311,87 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Result" xfId="5"/>
-    <cellStyle name="Result2" xfId="6"/>
     <cellStyle name="Comma [0]_Apoyo_PDI" xfId="7"/>
     <cellStyle name="Comma_Apoyo_PDI" xfId="8"/>
     <cellStyle name="Currency [0]_Apoyo_PDI" xfId="9"/>
     <cellStyle name="Currency_Apoyo_PDI" xfId="10"/>
     <cellStyle name="Followed Hyperlink_Apoyo_PDI" xfId="11"/>
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading1" xfId="2"/>
     <cellStyle name="Hyperlink_Apoyo_PDI" xfId="12"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 5" xfId="13"/>
+    <cellStyle name="Result" xfId="5"/>
+    <cellStyle name="Result2" xfId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -325,7 +460,18 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE6E6"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -615,764 +761,667 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja107">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="inlineStr">
-        <is>
-          <t>FORMACIÓN DE PERSONAS ADULTAS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="127" customWidth="1" min="1" max="1"/>
-    <col width="10.5703125" customWidth="1" min="2" max="3"/>
+    <col min="1" max="1" width="127" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="inlineStr">
-        <is>
-          <t>1. Formación de personas adultas. Curso 2023/24</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="35.25" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Grupos</t>
-        </is>
-      </c>
-      <c r="C3" s="14" t="inlineStr">
-        <is>
-          <t>Total alumnos</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="35.25" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="8">
         <f>B5+B11+B17+B24+B27+B33+B35</f>
-        <v/>
+        <v>653</v>
       </c>
       <c r="C4" s="8">
-        <f>C5+C11+C17+C24+C27+C33+C35</f>
-        <v/>
+        <f t="shared" ref="C4:E4" si="0">C5+C11+C17+C24+C27+C33+C35</f>
+        <v>11450</v>
       </c>
       <c r="D4" s="8">
-        <f>D5+D11+D17+D24+D27+D33+D35</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3644</v>
       </c>
       <c r="E4" s="8">
-        <f>E5+E11+E17+E24+E27+E33+E35</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>A Programas de alfabetización y para adquirir y actualizar la formación básica de las personas adultas</t>
-        </is>
+        <f t="shared" si="0"/>
+        <v>7806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="7">
         <f>SUM(B6:B10)</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="C5" s="7">
-        <f>SUM(C6:C10)</f>
-        <v/>
+        <f t="shared" ref="C5:E5" si="1">SUM(C6:C10)</f>
+        <v>1587</v>
       </c>
       <c r="D5" s="7">
-        <f>SUM(D6:D10)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>593</v>
       </c>
       <c r="E5" s="7">
-        <f>SUM(E6:E10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Alfabetización (nivel 1)</t>
-        </is>
-      </c>
-      <c r="B6" s="12" t="n">
+        <f t="shared" si="1"/>
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="12">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="12">
         <v>107</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="12">
         <v>31</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="12">
         <v>76</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Neolectura (nivel 2)</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>98</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Educación de base (nivel 3)</t>
-        </is>
-      </c>
-      <c r="B8" s="12" t="n">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="B8" s="12">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12">
         <v>350</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="12">
         <v>97</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="12">
         <v>253</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Graduado educación secundaría 1 (GES1)</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>421</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>175</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>246</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Graduado educación secundaría 2 (GES2)</t>
-        </is>
-      </c>
-      <c r="B10" s="12" t="n">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12">
         <v>34</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="12">
         <v>611</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="12">
         <v>268</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="12">
         <v>343</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="10" t="inlineStr">
-        <is>
-          <t>B  Programas para la obtención de titulaciones que posibilitan el acceso al mundo del trabajo y a otros niveles educativos</t>
-        </is>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="7">
         <f>SUM(B12:B16)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="C11" s="7">
         <f>SUM(C12:C16)</f>
-        <v/>
+        <v>816</v>
       </c>
       <c r="D11" s="7">
-        <f>SUM(D12:D16)</f>
-        <v/>
+        <f t="shared" ref="D11:E11" si="2">SUM(D12:D16)</f>
+        <v>307</v>
       </c>
       <c r="E11" s="7">
-        <f>SUM(E12:E16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Prueba para mayores 18 años para la obtención del título de GES</t>
-        </is>
-      </c>
-      <c r="B12" s="12" t="n">
+        <f t="shared" si="2"/>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="B12" s="12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12">
         <v>34</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="12">
         <v>13</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Prueba para mayores 20 años para la obtención del título de Bachiller</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Prueba de acceso a CFGM</t>
-        </is>
-      </c>
-      <c r="B14" s="12" t="n">
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="12" t="n">
+      <c r="B14" s="12">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12">
         <v>150</v>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="12">
         <v>58</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="12">
         <v>92</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Prueba de acceso a CFGS</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>472</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>194</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2">
         <v>278</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>Prep. P.A. Ens. Artísticas superiores</t>
-        </is>
-      </c>
-      <c r="B16" s="12" t="n">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="12" t="n">
+      <c r="C16" s="12">
         <v>155</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="12">
         <v>40</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="12">
         <v>115</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="10" t="inlineStr">
-        <is>
-          <t>C Programas para promover el conocimiento de la realidad valenciana en todos sus aspectos</t>
-        </is>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B17" s="7">
         <f>SUM(B18:B23)</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="C17" s="7">
-        <f>SUM(C18:C23)</f>
-        <v/>
+        <f t="shared" ref="C17:E17" si="3">SUM(C18:C23)</f>
+        <v>1641</v>
       </c>
       <c r="D17" s="7">
-        <f>SUM(D18:D23)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>443</v>
       </c>
       <c r="E17" s="7">
-        <f>SUM(E18:E23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>Valenciano A1</t>
-        </is>
-      </c>
-      <c r="B18" s="12" t="n">
+        <f t="shared" si="3"/>
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="12">
         <v>8</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="12">
         <v>286</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="12">
         <v>91</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="12">
         <v>195</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>Valenciano A2</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>234</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>69</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>165</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Valenciano B1</t>
-        </is>
-      </c>
-      <c r="B20" s="12" t="n">
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="12">
         <v>17</v>
       </c>
-      <c r="C20" s="12" t="n">
+      <c r="C20" s="12">
         <v>234</v>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="12">
         <v>57</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="12">
         <v>177</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>Valenciano B2</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
+    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2">
         <v>8</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>145</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>30</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>Valenciano C1</t>
-        </is>
-      </c>
-      <c r="B22" s="12" t="n">
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="12">
         <v>29</v>
       </c>
-      <c r="C22" s="12" t="n">
+      <c r="C22" s="12">
         <v>498</v>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="12">
         <v>136</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="12">
         <v>362</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>Valenciano C2</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
+    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="B23" s="2">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
         <v>244</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>60</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2">
         <v>184</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>D Programas para la preparación del ingreso en la universidad</t>
-        </is>
+    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="8">
         <f>SUM(B25:B26)</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="C24" s="8">
-        <f>SUM(C25:C26)</f>
-        <v/>
+        <f t="shared" ref="C24:E24" si="4">SUM(C25:C26)</f>
+        <v>437</v>
       </c>
       <c r="D24" s="8">
-        <f>SUM(D25:D26)</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>146</v>
       </c>
       <c r="E24" s="8">
-        <f>SUM(E25:E26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>Prueba de acceso a la universidad para mayores de 25 años</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>375</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>133</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2">
         <v>242</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>Prueba de acceso a la universidad para mayores de 45 años</t>
-        </is>
-      </c>
-      <c r="B26" s="12" t="n">
+    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="12">
         <v>5</v>
       </c>
-      <c r="C26" s="12" t="n">
+      <c r="C26" s="12">
         <v>62</v>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="12">
         <v>13</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="12">
         <v>49</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="10" t="inlineStr">
-        <is>
-          <t>E Programas que promuevan el desarrollo de la igualdad de oportunidades, la superación de todo tipo de discriminaciones</t>
-        </is>
+    <row r="27" spans="1:5" ht="15" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B27" s="7">
         <f>SUM(B28:B32)</f>
-        <v/>
+        <v>290</v>
       </c>
       <c r="C27" s="7">
-        <f>SUM(C28:C32)</f>
-        <v/>
+        <f t="shared" ref="C27:E27" si="5">SUM(C28:C32)</f>
+        <v>5289</v>
       </c>
       <c r="D27" s="7">
-        <f>SUM(D28:D32)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>1759</v>
       </c>
       <c r="E27" s="7">
-        <f>SUM(E28:E32)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>Castellano y valenciano como lengua extranjera</t>
-        </is>
-      </c>
-      <c r="B28" s="12" t="n">
+        <f t="shared" si="5"/>
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="12">
         <v>82</v>
       </c>
-      <c r="C28" s="13" t="n">
+      <c r="C28" s="13">
         <v>1524</v>
       </c>
-      <c r="D28" s="13" t="n">
+      <c r="D28" s="13">
         <v>623</v>
       </c>
-      <c r="E28" s="13" t="n">
+      <c r="E28" s="13">
         <v>901</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>Cursos de competencia comunicativa en lenguas extranjeras</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
+    <row r="29" spans="1:5" ht="15" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2">
         <v>112</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>2385</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>680</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2">
         <v>1705</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>Curso de nacionalidad española</t>
-        </is>
-      </c>
-      <c r="B30" s="12" t="n">
+    <row r="30" spans="1:5" ht="15" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="12">
         <v>1</v>
       </c>
-      <c r="C30" s="12" t="n">
+      <c r="C30" s="12">
         <v>63</v>
       </c>
-      <c r="D30" s="12" t="n">
+      <c r="D30" s="12">
         <v>33</v>
       </c>
-      <c r="E30" s="12" t="n">
+      <c r="E30" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>Curso de competencias digitales</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
+    <row r="31" spans="1:5" ht="15" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2">
         <v>86</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>1168</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>385</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2">
         <v>783</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>Cursos para el desarrollo de la igualdad de oportunidades, la superación de todo tipo de discriminaciones y la promoción de la participación sociocultural y laboral</t>
-        </is>
-      </c>
-      <c r="B32" s="12" t="n">
+    <row r="32" spans="1:5" ht="15" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="12">
         <v>9</v>
       </c>
-      <c r="C32" s="12" t="n">
+      <c r="C32" s="12">
         <v>149</v>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="12">
         <v>38</v>
       </c>
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="12">
         <v>111</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="10" t="inlineStr">
-        <is>
-          <t>G Programas de iniciación al trabajo, de actualización y de reconversión de las profesiones</t>
-        </is>
+    <row r="33" spans="1:5" ht="15" customHeight="1">
+      <c r="A33" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B33" s="7">
         <f>B34</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="C33" s="7">
-        <f>C34</f>
-        <v/>
+        <f t="shared" ref="C33:E33" si="6">C34</f>
+        <v>87</v>
       </c>
       <c r="D33" s="7">
-        <f>D34</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>39</v>
       </c>
       <c r="E33" s="7">
-        <f>E34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>Pruebas de evaluación de las competencias clave de nivel 2 de calificación profesional</t>
-        </is>
-      </c>
-      <c r="B34" s="12" t="n">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="12">
         <v>16</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="12">
         <v>87</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="12">
         <v>39</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="12">
         <v>48</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="10" t="inlineStr">
-        <is>
-          <t>J Programas que orientan y preparan para vivir el tiempo de recreo de una forma creativa</t>
-        </is>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B35" s="7">
         <f>B36</f>
-        <v/>
+        <v>105</v>
       </c>
       <c r="C35" s="7">
-        <f>C36</f>
-        <v/>
+        <f t="shared" ref="C35:E35" si="7">C36</f>
+        <v>1593</v>
       </c>
       <c r="D35" s="7">
-        <f>D36</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>357</v>
       </c>
       <c r="E35" s="7">
-        <f>E36</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="5" t="inlineStr">
-        <is>
-          <t>Cursos que orientan y preparan para vivir el tiempo de ocio de una forma creativa</t>
-        </is>
-      </c>
-      <c r="B36" s="12" t="n">
+        <f t="shared" si="7"/>
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="12">
         <v>105</v>
       </c>
-      <c r="C36" s="13" t="n">
+      <c r="C36" s="13">
         <v>1593</v>
       </c>
-      <c r="D36" s="13" t="n">
+      <c r="D36" s="13">
         <v>357</v>
       </c>
-      <c r="E36" s="13" t="n">
+      <c r="E36" s="13">
         <v>1236</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>Fuente: Conselleria de Participación, Transparencia, Cooperación y Calidad Democrática. Portal de datos abiertos de la Generalitat Valenciana.</t>
-        </is>
+    <row r="37" spans="1:5" ht="12.75">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>